--- a/db_feed/N2200/N2200_database - column title changing.xlsx
+++ b/db_feed/N2200/N2200_database - column title changing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Myeongyeon Lee\Documents\GitHub\ofet-db\db_feed\N2200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EFF035-612D-4FF8-8F7F-BFEDFC840DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79402E0B-FFC3-41AB-AB40-063AE7B061D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11445" yWindow="900" windowWidth="21600" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N2200_database - column title c" sheetId="1" r:id="rId1"/>
@@ -1526,7 +1526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BK28" sqref="BK28:BN29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3481,10 +3483,18 @@
       </c>
       <c r="BI15" s="1"/>
       <c r="BJ15" s="1"/>
-      <c r="BK15" s="1"/>
-      <c r="BL15" s="1"/>
-      <c r="BM15" s="1"/>
-      <c r="BN15" s="1"/>
+      <c r="BK15" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="BL15" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>208</v>
+      </c>
+      <c r="BN15" s="1">
+        <v>15.5</v>
+      </c>
       <c r="BO15" s="1"/>
       <c r="BP15" s="1"/>
       <c r="BQ15" s="1"/>
@@ -3599,10 +3609,18 @@
       </c>
       <c r="BI16" s="1"/>
       <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
-      <c r="BL16" s="1"/>
-      <c r="BM16" s="1"/>
-      <c r="BN16" s="1"/>
+      <c r="BK16" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="BL16" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BM16" s="1">
+        <v>208</v>
+      </c>
+      <c r="BN16" s="1">
+        <v>15.5</v>
+      </c>
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
       <c r="BQ16" s="1"/>
@@ -3717,10 +3735,18 @@
       </c>
       <c r="BI17" s="1"/>
       <c r="BJ17" s="1"/>
-      <c r="BK17" s="1"/>
-      <c r="BL17" s="1"/>
-      <c r="BM17" s="1"/>
-      <c r="BN17" s="1"/>
+      <c r="BK17" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="BL17" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BM17" s="1">
+        <v>208</v>
+      </c>
+      <c r="BN17" s="1">
+        <v>15.5</v>
+      </c>
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
       <c r="BQ17" s="1"/>
@@ -3835,10 +3861,18 @@
       </c>
       <c r="BI18" s="1"/>
       <c r="BJ18" s="1"/>
-      <c r="BK18" s="1"/>
-      <c r="BL18" s="1"/>
-      <c r="BM18" s="1"/>
-      <c r="BN18" s="1"/>
+      <c r="BK18" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM18" s="1">
+        <v>258</v>
+      </c>
+      <c r="BN18" s="1">
+        <v>20.399999999999999</v>
+      </c>
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
       <c r="BQ18" s="1"/>
@@ -3951,10 +3985,18 @@
       </c>
       <c r="BI19" s="1"/>
       <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
-      <c r="BM19" s="1"/>
-      <c r="BN19" s="1"/>
+      <c r="BK19" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="BL19" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM19" s="1">
+        <v>258</v>
+      </c>
+      <c r="BN19" s="1">
+        <v>20.399999999999999</v>
+      </c>
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
       <c r="BQ19" s="1"/>
@@ -4067,10 +4109,18 @@
       </c>
       <c r="BI20" s="1"/>
       <c r="BJ20" s="1"/>
-      <c r="BK20" s="1"/>
-      <c r="BL20" s="1"/>
-      <c r="BM20" s="1"/>
-      <c r="BN20" s="1"/>
+      <c r="BK20" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="BL20" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM20" s="1">
+        <v>258</v>
+      </c>
+      <c r="BN20" s="1">
+        <v>20.399999999999999</v>
+      </c>
       <c r="BO20" s="1"/>
       <c r="BP20" s="1"/>
       <c r="BQ20" s="1"/>
@@ -4183,10 +4233,18 @@
       </c>
       <c r="BI21" s="1"/>
       <c r="BJ21" s="1"/>
-      <c r="BK21" s="1"/>
-      <c r="BL21" s="1"/>
-      <c r="BM21" s="1"/>
-      <c r="BN21" s="1"/>
+      <c r="BK21" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="BL21" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM21" s="1">
+        <v>243</v>
+      </c>
+      <c r="BN21" s="1">
+        <v>18.7</v>
+      </c>
       <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
       <c r="BQ21" s="1"/>
@@ -4299,10 +4357,18 @@
       </c>
       <c r="BI22" s="1"/>
       <c r="BJ22" s="1"/>
-      <c r="BK22" s="1"/>
-      <c r="BL22" s="1"/>
-      <c r="BM22" s="1"/>
-      <c r="BN22" s="1"/>
+      <c r="BK22" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="BL22" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM22" s="1">
+        <v>243</v>
+      </c>
+      <c r="BN22" s="1">
+        <v>18.7</v>
+      </c>
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
       <c r="BQ22" s="1"/>
@@ -4415,10 +4481,18 @@
       </c>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
-      <c r="BK23" s="1"/>
-      <c r="BL23" s="1"/>
-      <c r="BM23" s="1"/>
-      <c r="BN23" s="1"/>
+      <c r="BK23" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="BL23" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM23" s="1">
+        <v>243</v>
+      </c>
+      <c r="BN23" s="1">
+        <v>18.7</v>
+      </c>
       <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
       <c r="BQ23" s="1"/>
@@ -4531,10 +4605,18 @@
       </c>
       <c r="BI24" s="1"/>
       <c r="BJ24" s="1"/>
-      <c r="BK24" s="1"/>
-      <c r="BL24" s="1"/>
-      <c r="BM24" s="1"/>
-      <c r="BN24" s="1"/>
+      <c r="BK24" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="BL24" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM24" s="1">
+        <v>218</v>
+      </c>
+      <c r="BN24" s="1">
+        <v>20</v>
+      </c>
       <c r="BO24" s="1"/>
       <c r="BP24" s="1"/>
       <c r="BQ24" s="1"/>
@@ -4647,10 +4729,18 @@
       </c>
       <c r="BI25" s="1"/>
       <c r="BJ25" s="1"/>
-      <c r="BK25" s="1"/>
-      <c r="BL25" s="1"/>
-      <c r="BM25" s="1"/>
-      <c r="BN25" s="1"/>
+      <c r="BK25" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="BL25" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM25" s="1">
+        <v>218</v>
+      </c>
+      <c r="BN25" s="1">
+        <v>20</v>
+      </c>
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
       <c r="BQ25" s="1"/>
@@ -4763,10 +4853,18 @@
       </c>
       <c r="BI26" s="1"/>
       <c r="BJ26" s="1"/>
-      <c r="BK26" s="1"/>
-      <c r="BL26" s="1"/>
-      <c r="BM26" s="1"/>
-      <c r="BN26" s="1"/>
+      <c r="BK26" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="BL26" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM26" s="1">
+        <v>218</v>
+      </c>
+      <c r="BN26" s="1">
+        <v>20</v>
+      </c>
       <c r="BO26" s="1"/>
       <c r="BP26" s="1"/>
       <c r="BQ26" s="1"/>
@@ -4879,10 +4977,18 @@
       </c>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
-      <c r="BK27" s="1"/>
-      <c r="BL27" s="1"/>
-      <c r="BM27" s="1"/>
-      <c r="BN27" s="1"/>
+      <c r="BK27" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="BL27" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM27" s="1">
+        <v>214</v>
+      </c>
+      <c r="BN27" s="1">
+        <v>18.100000000000001</v>
+      </c>
       <c r="BO27" s="1"/>
       <c r="BP27" s="1"/>
       <c r="BQ27" s="1"/>
@@ -4995,10 +5101,18 @@
       </c>
       <c r="BI28" s="1"/>
       <c r="BJ28" s="1"/>
-      <c r="BK28" s="1"/>
-      <c r="BL28" s="1"/>
-      <c r="BM28" s="1"/>
-      <c r="BN28" s="1"/>
+      <c r="BK28" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="BL28" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM28" s="1">
+        <v>214</v>
+      </c>
+      <c r="BN28" s="1">
+        <v>18.100000000000001</v>
+      </c>
       <c r="BO28" s="1"/>
       <c r="BP28" s="1"/>
       <c r="BQ28" s="1"/>
@@ -5111,10 +5225,18 @@
       </c>
       <c r="BI29" s="1"/>
       <c r="BJ29" s="1"/>
-      <c r="BK29" s="1"/>
-      <c r="BL29" s="1"/>
-      <c r="BM29" s="1"/>
-      <c r="BN29" s="1"/>
+      <c r="BK29" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="BL29" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM29" s="1">
+        <v>214</v>
+      </c>
+      <c r="BN29" s="1">
+        <v>18.100000000000001</v>
+      </c>
       <c r="BO29" s="1"/>
       <c r="BP29" s="1"/>
       <c r="BQ29" s="1"/>

--- a/db_feed/N2200/N2200_database - column title changing.xlsx
+++ b/db_feed/N2200/N2200_database - column title changing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Myeongyeon Lee\Documents\GitHub\ofet-db\db_feed\N2200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79402E0B-FFC3-41AB-AB40-063AE7B061D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B94A4E8-47D1-4288-A558-5A7FCAFB71F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11445" yWindow="900" windowWidth="21600" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N2200_database - column title c" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="140">
   <si>
     <t>PMMA</t>
   </si>
@@ -563,6 +563,10 @@
   </si>
   <si>
     <t>poly(1-phenylethene)</t>
+  </si>
+  <si>
+    <t>discussion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1161,7 +1165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1169,6 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1527,7 +1532,7 @@
   <dimension ref="A1:CI157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BJ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BK28" sqref="BK28:BN29"/>
+      <selection activeCell="BM6" sqref="BM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5349,10 +5354,18 @@
       </c>
       <c r="BI30" s="1"/>
       <c r="BJ30" s="1"/>
-      <c r="BK30" s="1"/>
-      <c r="BL30" s="1"/>
-      <c r="BM30" s="1"/>
-      <c r="BN30" s="1"/>
+      <c r="BK30" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="BL30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM30" s="1">
+        <v>224</v>
+      </c>
+      <c r="BN30" s="1">
+        <v>47</v>
+      </c>
       <c r="BO30" s="1"/>
       <c r="BP30" s="1"/>
       <c r="BQ30" s="1"/>
@@ -5458,10 +5471,18 @@
       </c>
       <c r="BI31" s="1"/>
       <c r="BJ31" s="1"/>
-      <c r="BK31" s="1"/>
-      <c r="BL31" s="1"/>
-      <c r="BM31" s="1"/>
-      <c r="BN31" s="1"/>
+      <c r="BK31" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="BL31" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="BM31" s="1">
+        <v>255</v>
+      </c>
+      <c r="BN31" s="1">
+        <v>40</v>
+      </c>
       <c r="BO31" s="1"/>
       <c r="BP31" s="1"/>
       <c r="BQ31" s="1"/>
@@ -5567,10 +5588,18 @@
       </c>
       <c r="BI32" s="1"/>
       <c r="BJ32" s="1"/>
-      <c r="BK32" s="1"/>
-      <c r="BL32" s="1"/>
-      <c r="BM32" s="1"/>
-      <c r="BN32" s="1"/>
+      <c r="BK32" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="BL32" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="BM32" s="1">
+        <v>270</v>
+      </c>
+      <c r="BN32" s="1">
+        <v>39</v>
+      </c>
       <c r="BO32" s="1"/>
       <c r="BP32" s="1"/>
       <c r="BQ32" s="1"/>
@@ -5676,10 +5705,18 @@
       </c>
       <c r="BI33" s="1"/>
       <c r="BJ33" s="1"/>
-      <c r="BK33" s="1"/>
-      <c r="BL33" s="1"/>
-      <c r="BM33" s="1"/>
-      <c r="BN33" s="1"/>
+      <c r="BK33" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="BL33" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="BM33" s="1">
+        <v>275</v>
+      </c>
+      <c r="BN33" s="1">
+        <v>22</v>
+      </c>
       <c r="BO33" s="1"/>
       <c r="BP33" s="1"/>
       <c r="BQ33" s="1"/>
@@ -5785,10 +5822,18 @@
       </c>
       <c r="BI34" s="1"/>
       <c r="BJ34" s="1"/>
-      <c r="BK34" s="1"/>
-      <c r="BL34" s="1"/>
-      <c r="BM34" s="1"/>
-      <c r="BN34" s="1"/>
+      <c r="BK34" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="BL34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM34" s="1">
+        <v>298</v>
+      </c>
+      <c r="BN34" s="1">
+        <v>50</v>
+      </c>
       <c r="BO34" s="1"/>
       <c r="BP34" s="1"/>
       <c r="BQ34" s="1"/>
@@ -5894,10 +5939,18 @@
       </c>
       <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
-      <c r="BK35" s="1"/>
-      <c r="BL35" s="1"/>
-      <c r="BM35" s="1"/>
-      <c r="BN35" s="1"/>
+      <c r="BK35" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="BL35" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM35" s="1">
+        <v>318</v>
+      </c>
+      <c r="BN35" s="1">
+        <v>46</v>
+      </c>
       <c r="BO35" s="1"/>
       <c r="BP35" s="1"/>
       <c r="BQ35" s="1"/>
@@ -6001,10 +6054,12 @@
       </c>
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
-      <c r="BK36" s="1"/>
-      <c r="BL36" s="1"/>
-      <c r="BM36" s="1"/>
-      <c r="BN36" s="1"/>
+      <c r="BK36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL36" s="3"/>
+      <c r="BM36" s="3"/>
+      <c r="BN36" s="3"/>
       <c r="BO36" s="1"/>
       <c r="BP36" s="1"/>
       <c r="BQ36" s="1"/>
@@ -6108,10 +6163,10 @@
       </c>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
-      <c r="BK37" s="1"/>
-      <c r="BL37" s="1"/>
-      <c r="BM37" s="1"/>
-      <c r="BN37" s="1"/>
+      <c r="BK37" s="3"/>
+      <c r="BL37" s="3"/>
+      <c r="BM37" s="3"/>
+      <c r="BN37" s="3"/>
       <c r="BO37" s="1"/>
       <c r="BP37" s="1"/>
       <c r="BQ37" s="1"/>
@@ -6215,10 +6270,10 @@
       </c>
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
-      <c r="BK38" s="1"/>
-      <c r="BL38" s="1"/>
-      <c r="BM38" s="1"/>
-      <c r="BN38" s="1"/>
+      <c r="BK38" s="3"/>
+      <c r="BL38" s="3"/>
+      <c r="BM38" s="3"/>
+      <c r="BN38" s="3"/>
       <c r="BO38" s="1"/>
       <c r="BP38" s="1"/>
       <c r="BQ38" s="1"/>
@@ -6324,10 +6379,10 @@
       </c>
       <c r="BI39" s="1"/>
       <c r="BJ39" s="1"/>
-      <c r="BK39" s="1"/>
-      <c r="BL39" s="1"/>
-      <c r="BM39" s="1"/>
-      <c r="BN39" s="1"/>
+      <c r="BK39" s="3"/>
+      <c r="BL39" s="3"/>
+      <c r="BM39" s="3"/>
+      <c r="BN39" s="3"/>
       <c r="BO39" s="1"/>
       <c r="BP39" s="1"/>
       <c r="BQ39" s="1"/>
@@ -6433,10 +6488,10 @@
       </c>
       <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
-      <c r="BK40" s="1"/>
-      <c r="BL40" s="1"/>
-      <c r="BM40" s="1"/>
-      <c r="BN40" s="1"/>
+      <c r="BK40" s="3"/>
+      <c r="BL40" s="3"/>
+      <c r="BM40" s="3"/>
+      <c r="BN40" s="3"/>
       <c r="BO40" s="1"/>
       <c r="BP40" s="1"/>
       <c r="BQ40" s="1"/>
@@ -6542,10 +6597,10 @@
       </c>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
-      <c r="BK41" s="1"/>
-      <c r="BL41" s="1"/>
-      <c r="BM41" s="1"/>
-      <c r="BN41" s="1"/>
+      <c r="BK41" s="3"/>
+      <c r="BL41" s="3"/>
+      <c r="BM41" s="3"/>
+      <c r="BN41" s="3"/>
       <c r="BO41" s="1"/>
       <c r="BP41" s="1"/>
       <c r="BQ41" s="1"/>
@@ -6651,10 +6706,10 @@
       </c>
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
-      <c r="BK42" s="1"/>
-      <c r="BL42" s="1"/>
-      <c r="BM42" s="1"/>
-      <c r="BN42" s="1"/>
+      <c r="BK42" s="3"/>
+      <c r="BL42" s="3"/>
+      <c r="BM42" s="3"/>
+      <c r="BN42" s="3"/>
       <c r="BO42" s="1"/>
       <c r="BP42" s="1"/>
       <c r="BQ42" s="1"/>
@@ -6760,10 +6815,10 @@
       </c>
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
-      <c r="BK43" s="1"/>
-      <c r="BL43" s="1"/>
-      <c r="BM43" s="1"/>
-      <c r="BN43" s="1"/>
+      <c r="BK43" s="3"/>
+      <c r="BL43" s="3"/>
+      <c r="BM43" s="3"/>
+      <c r="BN43" s="3"/>
       <c r="BO43" s="1"/>
       <c r="BP43" s="1"/>
       <c r="BQ43" s="1"/>
@@ -6869,10 +6924,10 @@
       </c>
       <c r="BI44" s="1"/>
       <c r="BJ44" s="1"/>
-      <c r="BK44" s="1"/>
-      <c r="BL44" s="1"/>
-      <c r="BM44" s="1"/>
-      <c r="BN44" s="1"/>
+      <c r="BK44" s="3"/>
+      <c r="BL44" s="3"/>
+      <c r="BM44" s="3"/>
+      <c r="BN44" s="3"/>
       <c r="BO44" s="1"/>
       <c r="BP44" s="1"/>
       <c r="BQ44" s="1"/>
@@ -6978,10 +7033,10 @@
       </c>
       <c r="BI45" s="1"/>
       <c r="BJ45" s="1"/>
-      <c r="BK45" s="1"/>
-      <c r="BL45" s="1"/>
-      <c r="BM45" s="1"/>
-      <c r="BN45" s="1"/>
+      <c r="BK45" s="3"/>
+      <c r="BL45" s="3"/>
+      <c r="BM45" s="3"/>
+      <c r="BN45" s="3"/>
       <c r="BO45" s="1"/>
       <c r="BP45" s="1"/>
       <c r="BQ45" s="1"/>

--- a/db_feed/N2200/N2200_database - column title changing.xlsx
+++ b/db_feed/N2200/N2200_database - column title changing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Myeongyeon Lee\Documents\GitHub\ofet-db\db_feed\N2200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A8D50A-C6F8-4F07-92CA-5110EE7EBC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3481FD-0CAA-4198-A461-62B8DE23F482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N2200_database - column title c" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="142">
   <si>
     <t>PMMA</t>
   </si>
@@ -563,6 +563,18 @@
   </si>
   <si>
     <t>drop_cast</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Au</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cu</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1170,7 +1182,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1528,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1689,7 +1703,7 @@
       <c r="AH1" t="s">
         <v>77</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>78</v>
       </c>
       <c r="AJ1" t="s">
@@ -1870,6 +1884,9 @@
       </c>
       <c r="Y2">
         <v>7</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>139</v>
       </c>
       <c r="AJ2" t="s">
         <v>0</v>
@@ -1992,6 +2009,9 @@
       </c>
       <c r="Y3">
         <v>3</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>139</v>
       </c>
       <c r="AJ3" t="s">
         <v>0</v>
@@ -2113,6 +2133,9 @@
       <c r="Y4">
         <v>1</v>
       </c>
+      <c r="AI4" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ4" t="s">
         <v>0</v>
       </c>
@@ -2232,6 +2255,9 @@
       </c>
       <c r="Y5">
         <v>0.5</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>139</v>
       </c>
       <c r="AJ5" t="s">
         <v>0</v>
@@ -2351,6 +2377,9 @@
       <c r="Y6">
         <v>8</v>
       </c>
+      <c r="AI6" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ6" t="s">
         <v>0</v>
       </c>
@@ -2473,6 +2502,9 @@
       <c r="Y7">
         <v>7</v>
       </c>
+      <c r="AI7" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ7" t="s">
         <v>0</v>
       </c>
@@ -2594,6 +2626,9 @@
       </c>
       <c r="Y8">
         <v>3</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>139</v>
       </c>
       <c r="AJ8" t="s">
         <v>0</v>
@@ -2715,6 +2750,9 @@
       <c r="Y9">
         <v>1</v>
       </c>
+      <c r="AI9" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ9" t="s">
         <v>0</v>
       </c>
@@ -2835,6 +2873,9 @@
       <c r="Y10">
         <v>8</v>
       </c>
+      <c r="AI10" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ10" t="s">
         <v>0</v>
       </c>
@@ -2957,6 +2998,9 @@
       <c r="Y11">
         <v>7</v>
       </c>
+      <c r="AI11" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ11" t="s">
         <v>0</v>
       </c>
@@ -3078,6 +3122,9 @@
       </c>
       <c r="Y12">
         <v>3</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>139</v>
       </c>
       <c r="AJ12" t="s">
         <v>0</v>
@@ -3199,6 +3246,9 @@
       <c r="Y13">
         <v>1</v>
       </c>
+      <c r="AI13" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ13" t="s">
         <v>0</v>
       </c>
@@ -3318,6 +3368,9 @@
       </c>
       <c r="Y14">
         <v>0.5</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>139</v>
       </c>
       <c r="AJ14" t="s">
         <v>0</v>
@@ -3437,6 +3490,9 @@
       <c r="Y15">
         <v>9</v>
       </c>
+      <c r="AI15" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ15" t="s">
         <v>3</v>
       </c>
@@ -3563,6 +3619,9 @@
       <c r="Y16">
         <v>9</v>
       </c>
+      <c r="AI16" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ16" t="s">
         <v>3</v>
       </c>
@@ -3689,6 +3748,9 @@
       <c r="Y17">
         <v>9</v>
       </c>
+      <c r="AI17" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ17" t="s">
         <v>3</v>
       </c>
@@ -3815,6 +3877,9 @@
       <c r="Y18">
         <v>9</v>
       </c>
+      <c r="AI18" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ18" t="s">
         <v>3</v>
       </c>
@@ -3939,6 +4004,9 @@
       <c r="Y19">
         <v>9</v>
       </c>
+      <c r="AI19" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ19" t="s">
         <v>3</v>
       </c>
@@ -4063,6 +4131,9 @@
       <c r="Y20">
         <v>9</v>
       </c>
+      <c r="AI20" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ20" t="s">
         <v>3</v>
       </c>
@@ -4187,6 +4258,9 @@
       <c r="Y21">
         <v>9</v>
       </c>
+      <c r="AI21" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ21" t="s">
         <v>3</v>
       </c>
@@ -4311,6 +4385,9 @@
       <c r="Y22">
         <v>9</v>
       </c>
+      <c r="AI22" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ22" t="s">
         <v>3</v>
       </c>
@@ -4435,6 +4512,9 @@
       <c r="Y23">
         <v>9</v>
       </c>
+      <c r="AI23" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ23" t="s">
         <v>3</v>
       </c>
@@ -4559,6 +4639,9 @@
       <c r="Y24">
         <v>9</v>
       </c>
+      <c r="AI24" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ24" t="s">
         <v>3</v>
       </c>
@@ -4683,6 +4766,9 @@
       <c r="Y25">
         <v>9</v>
       </c>
+      <c r="AI25" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ25" t="s">
         <v>3</v>
       </c>
@@ -4807,6 +4893,9 @@
       <c r="Y26">
         <v>9</v>
       </c>
+      <c r="AI26" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ26" t="s">
         <v>3</v>
       </c>
@@ -4931,6 +5020,9 @@
       <c r="Y27">
         <v>9</v>
       </c>
+      <c r="AI27" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ27" t="s">
         <v>3</v>
       </c>
@@ -5055,6 +5147,9 @@
       <c r="Y28">
         <v>9</v>
       </c>
+      <c r="AI28" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ28" t="s">
         <v>3</v>
       </c>
@@ -5179,6 +5274,9 @@
       <c r="Y29">
         <v>9</v>
       </c>
+      <c r="AI29" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ29" t="s">
         <v>3</v>
       </c>
@@ -5303,6 +5401,9 @@
       <c r="AC30">
         <v>138.4</v>
       </c>
+      <c r="AI30" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ30" t="s">
         <v>3</v>
       </c>
@@ -5420,6 +5521,9 @@
       <c r="Y31">
         <v>15</v>
       </c>
+      <c r="AI31" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ31" t="s">
         <v>3</v>
       </c>
@@ -5537,6 +5641,9 @@
       <c r="Y32">
         <v>3.75</v>
       </c>
+      <c r="AI32" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ32" t="s">
         <v>3</v>
       </c>
@@ -5654,6 +5761,9 @@
       <c r="Y33">
         <v>7.5</v>
       </c>
+      <c r="AI33" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ33" t="s">
         <v>3</v>
       </c>
@@ -5771,6 +5881,9 @@
       <c r="Y34">
         <v>7.5</v>
       </c>
+      <c r="AI34" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ34" t="s">
         <v>3</v>
       </c>
@@ -5888,6 +6001,9 @@
       <c r="Y35">
         <v>15</v>
       </c>
+      <c r="AI35" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ35" t="s">
         <v>3</v>
       </c>
@@ -6005,6 +6121,9 @@
       <c r="Y36">
         <v>10</v>
       </c>
+      <c r="AI36" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ36" t="s">
         <v>0</v>
       </c>
@@ -6051,10 +6170,10 @@
       </c>
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
-      <c r="BK36" s="3"/>
-      <c r="BL36" s="3"/>
-      <c r="BM36" s="3"/>
-      <c r="BN36" s="3"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
       <c r="BO36" s="1"/>
       <c r="BP36" s="1"/>
       <c r="BQ36" s="1"/>
@@ -6112,6 +6231,9 @@
       <c r="Y37">
         <v>10</v>
       </c>
+      <c r="AI37" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ37" t="s">
         <v>0</v>
       </c>
@@ -6158,10 +6280,10 @@
       </c>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
-      <c r="BK37" s="3"/>
-      <c r="BL37" s="3"/>
-      <c r="BM37" s="3"/>
-      <c r="BN37" s="3"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
       <c r="BO37" s="1"/>
       <c r="BP37" s="1"/>
       <c r="BQ37" s="1"/>
@@ -6219,6 +6341,9 @@
       <c r="Y38">
         <v>10</v>
       </c>
+      <c r="AI38" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ38" t="s">
         <v>0</v>
       </c>
@@ -6265,10 +6390,10 @@
       </c>
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
-      <c r="BK38" s="3"/>
-      <c r="BL38" s="3"/>
-      <c r="BM38" s="3"/>
-      <c r="BN38" s="3"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
       <c r="BO38" s="1"/>
       <c r="BP38" s="1"/>
       <c r="BQ38" s="1"/>
@@ -6328,6 +6453,9 @@
       <c r="Y39">
         <v>10</v>
       </c>
+      <c r="AI39" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ39" t="s">
         <v>0</v>
       </c>
@@ -6374,10 +6502,10 @@
       </c>
       <c r="BI39" s="1"/>
       <c r="BJ39" s="1"/>
-      <c r="BK39" s="3"/>
-      <c r="BL39" s="3"/>
-      <c r="BM39" s="3"/>
-      <c r="BN39" s="3"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
       <c r="BO39" s="1"/>
       <c r="BP39" s="1"/>
       <c r="BQ39" s="1"/>
@@ -6437,6 +6565,9 @@
       <c r="Y40">
         <v>10</v>
       </c>
+      <c r="AI40" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ40" t="s">
         <v>0</v>
       </c>
@@ -6483,10 +6614,10 @@
       </c>
       <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
-      <c r="BK40" s="3"/>
-      <c r="BL40" s="3"/>
-      <c r="BM40" s="3"/>
-      <c r="BN40" s="3"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
       <c r="BO40" s="1"/>
       <c r="BP40" s="1"/>
       <c r="BQ40" s="1"/>
@@ -6546,6 +6677,9 @@
       <c r="Y41">
         <v>10</v>
       </c>
+      <c r="AI41" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ41" t="s">
         <v>0</v>
       </c>
@@ -6592,10 +6726,10 @@
       </c>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
-      <c r="BK41" s="3"/>
-      <c r="BL41" s="3"/>
-      <c r="BM41" s="3"/>
-      <c r="BN41" s="3"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
       <c r="BO41" s="1"/>
       <c r="BP41" s="1"/>
       <c r="BQ41" s="1"/>
@@ -6655,6 +6789,9 @@
       <c r="Y42">
         <v>10</v>
       </c>
+      <c r="AI42" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ42" t="s">
         <v>0</v>
       </c>
@@ -6701,10 +6838,10 @@
       </c>
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
-      <c r="BK42" s="3"/>
-      <c r="BL42" s="3"/>
-      <c r="BM42" s="3"/>
-      <c r="BN42" s="3"/>
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="1"/>
+      <c r="BM42" s="1"/>
+      <c r="BN42" s="1"/>
       <c r="BO42" s="1"/>
       <c r="BP42" s="1"/>
       <c r="BQ42" s="1"/>
@@ -6764,6 +6901,9 @@
       <c r="Y43">
         <v>10</v>
       </c>
+      <c r="AI43" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ43" t="s">
         <v>0</v>
       </c>
@@ -6810,10 +6950,10 @@
       </c>
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
-      <c r="BK43" s="3"/>
-      <c r="BL43" s="3"/>
-      <c r="BM43" s="3"/>
-      <c r="BN43" s="3"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
       <c r="BO43" s="1"/>
       <c r="BP43" s="1"/>
       <c r="BQ43" s="1"/>
@@ -6873,6 +7013,9 @@
       <c r="Y44">
         <v>10</v>
       </c>
+      <c r="AI44" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ44" t="s">
         <v>0</v>
       </c>
@@ -6919,10 +7062,10 @@
       </c>
       <c r="BI44" s="1"/>
       <c r="BJ44" s="1"/>
-      <c r="BK44" s="3"/>
-      <c r="BL44" s="3"/>
-      <c r="BM44" s="3"/>
-      <c r="BN44" s="3"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
       <c r="BO44" s="1"/>
       <c r="BP44" s="1"/>
       <c r="BQ44" s="1"/>
@@ -6982,6 +7125,9 @@
       <c r="Y45">
         <v>10</v>
       </c>
+      <c r="AI45" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ45" t="s">
         <v>0</v>
       </c>
@@ -7028,10 +7174,10 @@
       </c>
       <c r="BI45" s="1"/>
       <c r="BJ45" s="1"/>
-      <c r="BK45" s="3"/>
-      <c r="BL45" s="3"/>
-      <c r="BM45" s="3"/>
-      <c r="BN45" s="3"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
       <c r="BO45" s="1"/>
       <c r="BP45" s="1"/>
       <c r="BQ45" s="1"/>
@@ -7099,6 +7245,9 @@
       </c>
       <c r="Y46">
         <v>2</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>140</v>
       </c>
       <c r="AJ46" t="s">
         <v>0</v>
@@ -7214,6 +7363,9 @@
       <c r="Y47">
         <v>2</v>
       </c>
+      <c r="AI47" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ47" t="s">
         <v>0</v>
       </c>
@@ -7328,6 +7480,9 @@
       <c r="Y48">
         <v>2</v>
       </c>
+      <c r="AI48" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ48" t="s">
         <v>0</v>
       </c>
@@ -7442,6 +7597,9 @@
       <c r="Y49">
         <v>2</v>
       </c>
+      <c r="AI49" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ49" t="s">
         <v>0</v>
       </c>
@@ -7556,6 +7714,9 @@
       <c r="Y50">
         <v>2</v>
       </c>
+      <c r="AI50" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ50" t="s">
         <v>0</v>
       </c>
@@ -7661,6 +7822,9 @@
       <c r="Y51">
         <v>8</v>
       </c>
+      <c r="AI51" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ51" t="s">
         <v>4</v>
       </c>
@@ -7771,6 +7935,9 @@
       </c>
       <c r="Y52">
         <v>8</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>140</v>
       </c>
       <c r="AJ52" t="s">
         <v>4</v>
@@ -7879,6 +8046,9 @@
       <c r="Y53">
         <v>8</v>
       </c>
+      <c r="AI53" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ53" t="s">
         <v>4</v>
       </c>
@@ -7990,6 +8160,9 @@
       <c r="Y54">
         <v>8</v>
       </c>
+      <c r="AI54" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ54" t="s">
         <v>4</v>
       </c>
@@ -8098,6 +8271,9 @@
       </c>
       <c r="Y55">
         <v>8</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>140</v>
       </c>
       <c r="AJ55" t="s">
         <v>4</v>
@@ -8206,6 +8382,9 @@
       <c r="Y56">
         <v>8</v>
       </c>
+      <c r="AI56" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ56" t="s">
         <v>4</v>
       </c>
@@ -8313,6 +8492,9 @@
       <c r="Y57">
         <v>8</v>
       </c>
+      <c r="AI57" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ57" t="s">
         <v>4</v>
       </c>
@@ -8419,6 +8601,9 @@
       </c>
       <c r="Y58">
         <v>8</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>140</v>
       </c>
       <c r="AJ58" t="s">
         <v>3</v>
@@ -8524,6 +8709,9 @@
       </c>
       <c r="Y59">
         <v>8</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>140</v>
       </c>
       <c r="AJ59" t="s">
         <v>3</v>
@@ -8628,6 +8816,9 @@
       <c r="Y60">
         <v>8</v>
       </c>
+      <c r="AI60" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ60" t="s">
         <v>3</v>
       </c>
@@ -8733,6 +8924,9 @@
       <c r="Y61">
         <v>8</v>
       </c>
+      <c r="AI61" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ61" t="s">
         <v>3</v>
       </c>
@@ -8838,6 +9032,9 @@
       <c r="Y62">
         <v>8</v>
       </c>
+      <c r="AI62" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ62" t="s">
         <v>3</v>
       </c>
@@ -8943,6 +9140,9 @@
       <c r="Y63">
         <v>8</v>
       </c>
+      <c r="AI63" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ63" t="s">
         <v>3</v>
       </c>
@@ -9048,6 +9248,9 @@
       <c r="Y64">
         <v>8</v>
       </c>
+      <c r="AI64" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ64" t="s">
         <v>3</v>
       </c>
@@ -9518,6 +9721,9 @@
       <c r="X69">
         <v>138.4</v>
       </c>
+      <c r="AI69" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ69" t="s">
         <v>3</v>
       </c>
@@ -9610,6 +9816,9 @@
       <c r="X70">
         <v>138.4</v>
       </c>
+      <c r="AI70" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ70" t="s">
         <v>3</v>
       </c>
@@ -9702,6 +9911,9 @@
       <c r="X71">
         <v>138.4</v>
       </c>
+      <c r="AI71" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ71" t="s">
         <v>3</v>
       </c>
@@ -9794,6 +10006,9 @@
       <c r="X72">
         <v>138.4</v>
       </c>
+      <c r="AI72" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ72" t="s">
         <v>3</v>
       </c>
@@ -9897,6 +10112,9 @@
       </c>
       <c r="Y73">
         <v>8</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>140</v>
       </c>
       <c r="AJ73" t="s">
         <v>3</v>
@@ -10025,6 +10243,9 @@
       <c r="Y74">
         <v>8</v>
       </c>
+      <c r="AI74" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ74" t="s">
         <v>3</v>
       </c>
@@ -10152,6 +10373,9 @@
       <c r="Y75">
         <v>8</v>
       </c>
+      <c r="AI75" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ75" t="s">
         <v>3</v>
       </c>
@@ -10279,6 +10503,9 @@
       <c r="Y76">
         <v>8</v>
       </c>
+      <c r="AI76" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ76" t="s">
         <v>3</v>
       </c>
@@ -10406,6 +10633,9 @@
       <c r="Y77">
         <v>8</v>
       </c>
+      <c r="AI77" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ77" t="s">
         <v>3</v>
       </c>
@@ -10533,6 +10763,9 @@
       <c r="Y78">
         <v>8</v>
       </c>
+      <c r="AI78" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ78" t="s">
         <v>3</v>
       </c>
@@ -10660,6 +10893,9 @@
       <c r="Y79">
         <v>8</v>
       </c>
+      <c r="AI79" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ79" t="s">
         <v>3</v>
       </c>
@@ -10787,6 +11023,9 @@
       <c r="Y80">
         <v>8</v>
       </c>
+      <c r="AI80" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ80" t="s">
         <v>3</v>
       </c>
@@ -10914,6 +11153,9 @@
       <c r="Y81">
         <v>8</v>
       </c>
+      <c r="AI81" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ81" t="s">
         <v>3</v>
       </c>
@@ -11041,6 +11283,9 @@
       <c r="Y82">
         <v>8</v>
       </c>
+      <c r="AI82" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ82" t="s">
         <v>3</v>
       </c>
@@ -11168,6 +11413,9 @@
       <c r="Y83">
         <v>8</v>
       </c>
+      <c r="AI83" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ83" t="s">
         <v>3</v>
       </c>
@@ -11295,6 +11543,9 @@
       <c r="Y84">
         <v>8</v>
       </c>
+      <c r="AI84" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ84" t="s">
         <v>3</v>
       </c>
@@ -11421,6 +11672,9 @@
       </c>
       <c r="Y85">
         <v>8</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>140</v>
       </c>
       <c r="AJ85" t="s">
         <v>3</v>
@@ -11545,6 +11799,9 @@
       <c r="Y86">
         <v>8</v>
       </c>
+      <c r="AI86" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ86" t="s">
         <v>3</v>
       </c>
@@ -11644,6 +11901,9 @@
       <c r="Y87">
         <v>10</v>
       </c>
+      <c r="AI87" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ87" t="s">
         <v>0</v>
       </c>
@@ -11751,6 +12011,9 @@
       <c r="Y88">
         <v>10</v>
       </c>
+      <c r="AI88" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ88" t="s">
         <v>0</v>
       </c>
@@ -11858,6 +12121,9 @@
       <c r="Y89">
         <v>10</v>
       </c>
+      <c r="AI89" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ89" t="s">
         <v>0</v>
       </c>
@@ -11965,6 +12231,9 @@
       <c r="Y90">
         <v>10</v>
       </c>
+      <c r="AI90" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ90" t="s">
         <v>0</v>
       </c>
@@ -12072,6 +12341,9 @@
       <c r="Y91">
         <v>9</v>
       </c>
+      <c r="AI91" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ91" t="s">
         <v>3</v>
       </c>
@@ -12174,6 +12446,9 @@
       </c>
       <c r="Y92">
         <v>5</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>140</v>
       </c>
       <c r="AJ92" t="s">
         <v>0</v>
@@ -12284,6 +12559,9 @@
       <c r="Y93">
         <v>5</v>
       </c>
+      <c r="AI93" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ93" t="s">
         <v>0</v>
       </c>
@@ -12393,6 +12671,9 @@
       <c r="Y94">
         <v>5</v>
       </c>
+      <c r="AI94" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ94" t="s">
         <v>0</v>
       </c>
@@ -12502,6 +12783,9 @@
       <c r="Y95">
         <v>5</v>
       </c>
+      <c r="AI95" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ95" t="s">
         <v>0</v>
       </c>
@@ -12611,6 +12895,9 @@
       <c r="Y96">
         <v>9</v>
       </c>
+      <c r="AI96" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ96" t="s">
         <v>0</v>
       </c>
@@ -12720,6 +13007,9 @@
       <c r="Y97">
         <v>9</v>
       </c>
+      <c r="AI97" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ97" t="s">
         <v>0</v>
       </c>
@@ -12829,6 +13119,9 @@
       <c r="Y98">
         <v>10</v>
       </c>
+      <c r="AI98" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ98" t="s">
         <v>0</v>
       </c>
@@ -12938,6 +13231,9 @@
       <c r="Y99">
         <v>10</v>
       </c>
+      <c r="AI99" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ99" t="s">
         <v>0</v>
       </c>
@@ -13055,6 +13351,9 @@
       </c>
       <c r="Y100">
         <v>8</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>139</v>
       </c>
       <c r="AJ100" t="s">
         <v>3</v>
@@ -13164,6 +13463,9 @@
       <c r="Y101">
         <v>8</v>
       </c>
+      <c r="AI101" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ101" t="s">
         <v>3</v>
       </c>
@@ -13272,6 +13574,9 @@
       <c r="Y102">
         <v>0.01</v>
       </c>
+      <c r="AI102" t="s">
+        <v>141</v>
+      </c>
       <c r="AJ102" t="s">
         <v>3</v>
       </c>
@@ -13389,6 +13694,9 @@
       <c r="Y103">
         <v>0.01</v>
       </c>
+      <c r="AI103" t="s">
+        <v>141</v>
+      </c>
       <c r="AJ103" t="s">
         <v>3</v>
       </c>
@@ -13506,6 +13814,9 @@
       <c r="Y104">
         <v>0.01</v>
       </c>
+      <c r="AI104" t="s">
+        <v>141</v>
+      </c>
       <c r="AJ104" t="s">
         <v>3</v>
       </c>
@@ -13623,6 +13934,9 @@
       <c r="Y105">
         <v>0.01</v>
       </c>
+      <c r="AI105" t="s">
+        <v>141</v>
+      </c>
       <c r="AJ105" t="s">
         <v>3</v>
       </c>
@@ -13740,6 +14054,9 @@
       <c r="Y106">
         <v>0.01</v>
       </c>
+      <c r="AI106" t="s">
+        <v>141</v>
+      </c>
       <c r="AJ106" t="s">
         <v>3</v>
       </c>
@@ -13857,6 +14174,9 @@
       <c r="Y107">
         <v>0.01</v>
       </c>
+      <c r="AI107" t="s">
+        <v>141</v>
+      </c>
       <c r="AJ107" t="s">
         <v>3</v>
       </c>
@@ -13974,6 +14294,9 @@
       <c r="Y108">
         <v>0.01</v>
       </c>
+      <c r="AI108" t="s">
+        <v>141</v>
+      </c>
       <c r="AJ108" t="s">
         <v>3</v>
       </c>
@@ -14091,6 +14414,9 @@
       <c r="Y109">
         <v>0.01</v>
       </c>
+      <c r="AI109" t="s">
+        <v>141</v>
+      </c>
       <c r="AJ109" t="s">
         <v>3</v>
       </c>
@@ -14208,6 +14534,9 @@
       <c r="Y110">
         <v>8</v>
       </c>
+      <c r="AI110" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ110" t="s">
         <v>3</v>
       </c>
@@ -14344,6 +14673,9 @@
       <c r="Y111">
         <v>8</v>
       </c>
+      <c r="AI111" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ111" t="s">
         <v>3</v>
       </c>
@@ -14480,6 +14812,9 @@
       <c r="Y112">
         <v>8</v>
       </c>
+      <c r="AI112" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ112" t="s">
         <v>3</v>
       </c>
@@ -14616,6 +14951,9 @@
       <c r="Y113">
         <v>8</v>
       </c>
+      <c r="AI113" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ113" t="s">
         <v>3</v>
       </c>
@@ -14752,6 +15090,9 @@
       <c r="Y114">
         <v>8</v>
       </c>
+      <c r="AI114" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ114" t="s">
         <v>3</v>
       </c>
@@ -14888,6 +15229,9 @@
       <c r="Y115">
         <v>8</v>
       </c>
+      <c r="AI115" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ115" t="s">
         <v>3</v>
       </c>
@@ -15024,6 +15368,9 @@
       <c r="Y116">
         <v>8</v>
       </c>
+      <c r="AI116" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ116" t="s">
         <v>3</v>
       </c>
@@ -15160,6 +15507,9 @@
       <c r="Y117">
         <v>8</v>
       </c>
+      <c r="AI117" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ117" t="s">
         <v>3</v>
       </c>
@@ -15296,6 +15646,9 @@
       <c r="Y118">
         <v>8</v>
       </c>
+      <c r="AI118" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ118" t="s">
         <v>3</v>
       </c>
@@ -15432,6 +15785,9 @@
       <c r="Y119">
         <v>8</v>
       </c>
+      <c r="AI119" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ119" t="s">
         <v>3</v>
       </c>
@@ -15568,6 +15924,9 @@
       <c r="Y120">
         <v>8</v>
       </c>
+      <c r="AI120" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ120" t="s">
         <v>3</v>
       </c>
@@ -15704,6 +16063,9 @@
       <c r="Y121">
         <v>8</v>
       </c>
+      <c r="AI121" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ121" t="s">
         <v>3</v>
       </c>
@@ -15840,6 +16202,9 @@
       <c r="Y122">
         <v>8</v>
       </c>
+      <c r="AI122" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ122" t="s">
         <v>3</v>
       </c>
@@ -15961,6 +16326,9 @@
       <c r="Y123">
         <v>8</v>
       </c>
+      <c r="AI123" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ123" t="s">
         <v>3</v>
       </c>
@@ -16097,6 +16465,9 @@
       <c r="Y124">
         <v>8</v>
       </c>
+      <c r="AI124" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ124" t="s">
         <v>3</v>
       </c>
@@ -16233,6 +16604,9 @@
       <c r="Y125">
         <v>8</v>
       </c>
+      <c r="AI125" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ125" t="s">
         <v>3</v>
       </c>
@@ -16369,6 +16743,9 @@
       <c r="Y126">
         <v>8</v>
       </c>
+      <c r="AI126" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ126" t="s">
         <v>3</v>
       </c>
@@ -16505,6 +16882,9 @@
       <c r="Y127">
         <v>8</v>
       </c>
+      <c r="AI127" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ127" t="s">
         <v>3</v>
       </c>
@@ -16641,6 +17021,9 @@
       <c r="Y128">
         <v>8</v>
       </c>
+      <c r="AI128" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ128" t="s">
         <v>3</v>
       </c>
@@ -16777,6 +17160,9 @@
       <c r="Y129">
         <v>8</v>
       </c>
+      <c r="AI129" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ129" t="s">
         <v>3</v>
       </c>
@@ -16913,6 +17299,9 @@
       <c r="Y130">
         <v>8</v>
       </c>
+      <c r="AI130" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ130" t="s">
         <v>3</v>
       </c>
@@ -17049,6 +17438,9 @@
       <c r="Y131">
         <v>8</v>
       </c>
+      <c r="AI131" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ131" t="s">
         <v>3</v>
       </c>
@@ -17185,6 +17577,9 @@
       <c r="Y132">
         <v>8</v>
       </c>
+      <c r="AI132" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ132" t="s">
         <v>3</v>
       </c>
@@ -17321,6 +17716,9 @@
       <c r="Y133">
         <v>8</v>
       </c>
+      <c r="AI133" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ133" t="s">
         <v>3</v>
       </c>
@@ -17457,6 +17855,9 @@
       <c r="Y134">
         <v>8</v>
       </c>
+      <c r="AI134" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ134" t="s">
         <v>3</v>
       </c>
@@ -17593,6 +17994,9 @@
       <c r="Y135">
         <v>8</v>
       </c>
+      <c r="AI135" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ135" t="s">
         <v>3</v>
       </c>
@@ -17714,6 +18118,9 @@
       <c r="Y136">
         <v>5</v>
       </c>
+      <c r="AI136" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ136" t="s">
         <v>0</v>
       </c>
@@ -17846,6 +18253,9 @@
       <c r="Y137">
         <v>5</v>
       </c>
+      <c r="AI137" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ137" t="s">
         <v>0</v>
       </c>
@@ -17978,6 +18388,9 @@
       <c r="Y138">
         <v>5</v>
       </c>
+      <c r="AI138" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ138" t="s">
         <v>0</v>
       </c>
@@ -18110,6 +18523,9 @@
       <c r="Y139">
         <v>5</v>
       </c>
+      <c r="AI139" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ139" t="s">
         <v>0</v>
       </c>
@@ -18242,6 +18658,9 @@
       <c r="Y140">
         <v>5</v>
       </c>
+      <c r="AI140" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ140" t="s">
         <v>0</v>
       </c>
@@ -18365,6 +18784,9 @@
       <c r="Y141">
         <v>5</v>
       </c>
+      <c r="AI141" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ141" t="s">
         <v>0</v>
       </c>
@@ -18497,6 +18919,9 @@
       <c r="Y142">
         <v>5</v>
       </c>
+      <c r="AI142" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ142" t="s">
         <v>0</v>
       </c>
@@ -18629,6 +19054,9 @@
       <c r="Y143">
         <v>5</v>
       </c>
+      <c r="AI143" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ143" t="s">
         <v>0</v>
       </c>
@@ -18761,6 +19189,9 @@
       <c r="Y144">
         <v>5</v>
       </c>
+      <c r="AI144" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ144" t="s">
         <v>0</v>
       </c>
@@ -18893,6 +19324,9 @@
       <c r="Y145">
         <v>5</v>
       </c>
+      <c r="AI145" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ145" t="s">
         <v>0</v>
       </c>
@@ -19016,6 +19450,9 @@
       <c r="Y146">
         <v>5</v>
       </c>
+      <c r="AI146" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ146" t="s">
         <v>0</v>
       </c>
@@ -19142,6 +19579,9 @@
       <c r="Y147">
         <v>5</v>
       </c>
+      <c r="AI147" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ147" t="s">
         <v>0</v>
       </c>
@@ -19268,6 +19708,9 @@
       <c r="Y148">
         <v>5</v>
       </c>
+      <c r="AI148" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ148" t="s">
         <v>0</v>
       </c>
@@ -19394,6 +19837,9 @@
       <c r="Y149">
         <v>5</v>
       </c>
+      <c r="AI149" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ149" t="s">
         <v>0</v>
       </c>
@@ -19520,6 +19966,9 @@
       <c r="Y150">
         <v>5</v>
       </c>
+      <c r="AI150" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ150" t="s">
         <v>0</v>
       </c>
@@ -19734,6 +20183,9 @@
       <c r="Y152">
         <v>10</v>
       </c>
+      <c r="AI152" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ152" t="s">
         <v>105</v>
       </c>
@@ -19842,6 +20294,9 @@
       <c r="Y153">
         <v>10</v>
       </c>
+      <c r="AI153" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ153" t="s">
         <v>105</v>
       </c>
@@ -19950,6 +20405,9 @@
       <c r="Y154">
         <v>10</v>
       </c>
+      <c r="AI154" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ154" t="s">
         <v>105</v>
       </c>
@@ -20058,6 +20516,9 @@
       <c r="Y155">
         <v>10</v>
       </c>
+      <c r="AI155" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ155" t="s">
         <v>105</v>
       </c>
@@ -20166,6 +20627,9 @@
       <c r="Y156">
         <v>10</v>
       </c>
+      <c r="AI156" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ156" t="s">
         <v>105</v>
       </c>
@@ -20274,6 +20738,9 @@
       <c r="Y157">
         <v>10</v>
       </c>
+      <c r="AI157" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ157" t="s">
         <v>105</v>
       </c>

--- a/db_feed/N2200/N2200_database - column title changing.xlsx
+++ b/db_feed/N2200/N2200_database - column title changing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Myeongyeon Lee\Documents\GitHub\ofet-db\db_feed\N2200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3481FD-0CAA-4198-A461-62B8DE23F482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35614311-06AC-4D96-8313-7F63FA45B205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14010" yWindow="0" windowWidth="14790" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N2200_database - column title c" sheetId="1" r:id="rId1"/>
@@ -1174,15 +1174,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1542,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1703,7 +1700,7 @@
       <c r="AH1" t="s">
         <v>77</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" t="s">
         <v>78</v>
       </c>
       <c r="AJ1" t="s">
@@ -10160,10 +10157,18 @@
       </c>
       <c r="BI73" s="1"/>
       <c r="BJ73" s="1"/>
-      <c r="BK73" s="1"/>
-      <c r="BL73" s="1"/>
-      <c r="BM73" s="1"/>
-      <c r="BN73" s="1"/>
+      <c r="BK73" s="1">
+        <v>25.75</v>
+      </c>
+      <c r="BL73" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="BM73" s="1">
+        <v>436</v>
+      </c>
+      <c r="BN73" s="1">
+        <v>36.9</v>
+      </c>
       <c r="BO73" s="1"/>
       <c r="BP73" s="1"/>
       <c r="BQ73" s="1"/>
@@ -10290,10 +10295,18 @@
       </c>
       <c r="BI74" s="1"/>
       <c r="BJ74" s="1"/>
-      <c r="BK74" s="1"/>
-      <c r="BL74" s="1"/>
-      <c r="BM74" s="1"/>
-      <c r="BN74" s="1"/>
+      <c r="BK74" s="1">
+        <v>25.45</v>
+      </c>
+      <c r="BL74" s="1">
+        <v>3.91</v>
+      </c>
+      <c r="BM74" s="1">
+        <v>444</v>
+      </c>
+      <c r="BN74" s="1">
+        <v>35.5</v>
+      </c>
       <c r="BO74" s="1"/>
       <c r="BP74" s="1"/>
       <c r="BQ74" s="1"/>
@@ -10420,10 +10433,18 @@
       </c>
       <c r="BI75" s="1"/>
       <c r="BJ75" s="1"/>
-      <c r="BK75" s="1"/>
-      <c r="BL75" s="1"/>
-      <c r="BM75" s="1"/>
-      <c r="BN75" s="1"/>
+      <c r="BK75" s="1">
+        <v>25.48</v>
+      </c>
+      <c r="BL75" s="1">
+        <v>3.91</v>
+      </c>
+      <c r="BM75" s="1">
+        <v>452</v>
+      </c>
+      <c r="BN75" s="1">
+        <v>34.700000000000003</v>
+      </c>
       <c r="BO75" s="1"/>
       <c r="BP75" s="1"/>
       <c r="BQ75" s="1"/>
@@ -10550,10 +10571,18 @@
       </c>
       <c r="BI76" s="1"/>
       <c r="BJ76" s="1"/>
-      <c r="BK76" s="1"/>
-      <c r="BL76" s="1"/>
-      <c r="BM76" s="1"/>
-      <c r="BN76" s="1"/>
+      <c r="BK76" s="1">
+        <v>25.46</v>
+      </c>
+      <c r="BL76" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="BM76" s="1">
+        <v>457</v>
+      </c>
+      <c r="BN76" s="1">
+        <v>32.6</v>
+      </c>
       <c r="BO76" s="1"/>
       <c r="BP76" s="1"/>
       <c r="BQ76" s="1"/>
@@ -10680,10 +10709,18 @@
       </c>
       <c r="BI77" s="1"/>
       <c r="BJ77" s="1"/>
-      <c r="BK77" s="1"/>
-      <c r="BL77" s="1"/>
-      <c r="BM77" s="1"/>
-      <c r="BN77" s="1"/>
+      <c r="BK77" s="1">
+        <v>25.43</v>
+      </c>
+      <c r="BL77" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="BM77" s="1">
+        <v>429</v>
+      </c>
+      <c r="BN77" s="1">
+        <v>31.4</v>
+      </c>
       <c r="BO77" s="1"/>
       <c r="BP77" s="1"/>
       <c r="BQ77" s="1"/>
@@ -10810,10 +10847,18 @@
       </c>
       <c r="BI78" s="1"/>
       <c r="BJ78" s="1"/>
-      <c r="BK78" s="1"/>
-      <c r="BL78" s="1"/>
-      <c r="BM78" s="1"/>
-      <c r="BN78" s="1"/>
+      <c r="BK78" s="1">
+        <v>25.41</v>
+      </c>
+      <c r="BL78" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="BM78" s="1">
+        <v>357</v>
+      </c>
+      <c r="BN78" s="1">
+        <v>27.7</v>
+      </c>
       <c r="BO78" s="1"/>
       <c r="BP78" s="1"/>
       <c r="BQ78" s="1"/>
@@ -10940,10 +10985,18 @@
       </c>
       <c r="BI79" s="1"/>
       <c r="BJ79" s="1"/>
-      <c r="BK79" s="1"/>
-      <c r="BL79" s="1"/>
-      <c r="BM79" s="1"/>
-      <c r="BN79" s="1"/>
+      <c r="BK79" s="1">
+        <v>25.51</v>
+      </c>
+      <c r="BL79" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="BM79" s="1">
+        <v>347</v>
+      </c>
+      <c r="BN79" s="1">
+        <v>20.8</v>
+      </c>
       <c r="BO79" s="1"/>
       <c r="BP79" s="1"/>
       <c r="BQ79" s="1"/>
@@ -11070,9 +11123,13 @@
       </c>
       <c r="BI80" s="1"/>
       <c r="BJ80" s="1"/>
-      <c r="BK80" s="1"/>
+      <c r="BK80" s="1">
+        <v>25.3</v>
+      </c>
       <c r="BL80" s="1"/>
-      <c r="BM80" s="1"/>
+      <c r="BM80" s="1">
+        <v>268</v>
+      </c>
       <c r="BN80" s="1"/>
       <c r="BO80" s="1"/>
       <c r="BP80" s="1"/>
